--- a/biology/Zoologie/Dryas_iulia/Dryas_iulia.xlsx
+++ b/biology/Zoologie/Dryas_iulia/Dryas_iulia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Flambeau
 Dryas iulia, le Flambeau, unique espèce du genre Dryas, est un lépidoptère appartenant à la famille des Nymphalidae et à la sous-famille des Heliconiinae.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Imago
-C'est un très grand papillon de couleur orange vif aux ailes bordées d'une fine ligne marron chez le mâle, d'une bande marron étroite aux postérieures plus large aux antérieures avec de plus une autre bande délimitant un triangle orange à l'apex chez la femelle.
-Chenille
-La chenille est marron avec des marques blanches et rouges et des scolis noirs.
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un très grand papillon de couleur orange vif aux ailes bordées d'une fine ligne marron chez le mâle, d'une bande marron étroite aux postérieures plus large aux antérieures avec de plus une autre bande délimitant un triangle orange à l'apex chez la femelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dryas_iulia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dryas_iulia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est marron avec des marques blanches et rouges et des scolis noirs.
 			Chenille.
 			Revers et accouplement.
 			Vue dorsale, Guadeloupe.
@@ -526,40 +578,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Dryas_iulia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dryas_iulia</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Dryas julia vole toute l'année dans sa zone de résidence tropicale, et il peut migrer plus au nord durant l'été[1].
-Plantes hôtes
-Ses plantes hôtes sont des passiflores (Passiflora), Passiflora platyloba et Passiflora vitifolia, Passiflora lutea au Texas, Passiflora suberosa pour Dryas iulia moderata[2],[1],[3].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -581,14 +599,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il réside dans le sud du Mexique, en Amérique centrale et aux Antilles[2]. Aux États-Unis il est résident en Floride et dans le sud du Texas et migrateur plus au nord (Nebraska)[1].
-Biotope
-Son habitat est la forêt claire et les zones ouvertes, bords de rivières comme jardins fleuris[4].
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryas julia vole toute l'année dans sa zone de résidence tropicale, et il peut migrer plus au nord durant l'été.
 </t>
         </is>
       </c>
@@ -614,25 +636,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Systématique</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le genre Dryas a été décrit pour l'entomologiste allemand Jakob Hübner en 1807[5].
-L'espèce Dryas iulia a été décrite par l'entomologiste hollandais Johan Christian Fabricius en 1775, sous le nom initial de Papilio iulia.
-Synonymes
-Pour le genre
-Alcionea (Rafinesque, 1815)
-Colaenis (Hübner, 1819) [6]
-Pour l'espèce
-Papilio iulia (Fabricius, 1775) Protonyme[7]
-Colaenis julia (Dyar, 1903) [8]
-Papilio julia (Hemming, 1967) [9]
-Dryas julia [10]
-Dryas julia juncta Comstock[11]
-Noms vernaculaires
-Dryas iulia se nomme Flambeau en français, Julia en anglais[2],[12].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des passiflores (Passiflora), Passiflora platyloba et Passiflora vitifolia, Passiflora lutea au Texas, Passiflora suberosa pour Dryas iulia moderata.
 </t>
         </is>
       </c>
@@ -658,12 +673,198 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans le sud du Mexique, en Amérique centrale et aux Antilles. Aux États-Unis il est résident en Floride et dans le sud du Texas et migrateur plus au nord (Nebraska).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dryas_iulia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dryas_iulia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est la forêt claire et les zones ouvertes, bords de rivières comme jardins fleuris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dryas_iulia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dryas_iulia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le genre Dryas a été décrit pour l'entomologiste allemand Jakob Hübner en 1807.
+L'espèce Dryas iulia a été décrite par l'entomologiste hollandais Johan Christian Fabricius en 1775, sous le nom initial de Papilio iulia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dryas_iulia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dryas_iulia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Pour le genre
+Alcionea (Rafinesque, 1815)
+Colaenis (Hübner, 1819) 
+Pour l'espèce
+Papilio iulia (Fabricius, 1775) Protonyme
+Colaenis julia (Dyar, 1903) 
+Papilio julia (Hemming, 1967) 
+Dryas julia 
+Dryas julia juncta Comstock</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dryas_iulia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dryas_iulia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryas iulia se nomme Flambeau en français, Julia en anglais,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dryas_iulia</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dryas_iulia</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous-espèces [2],[11]
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-espèces ,
 Dryas iulia iulia à Porto Rico
 Dryas iulia alcionea (Cramer, 1779) en Guyane, au Suriname et en Bolivie.
 Dryas iulia carteri (Riley, 1926) ; aux Bahamas.
